--- a/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -429,7 +429,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,11 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>359546981492043</v>
+      </c>
+    </row>
     <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -429,7 +429,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,8 +780,16 @@
         <v>359546981492043</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>359546981495640</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>359546981495624</v>
+      </c>
+    </row>
     <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>

--- a/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -429,7 +429,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,9 +597,7 @@
       <c r="C3" s="1">
         <v>359546981442584</v>
       </c>
-      <c r="D3" s="2">
-        <v>354150815586768</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="F3" s="1">
         <v>359946901619826</v>
       </c>
@@ -780,16 +778,8 @@
         <v>359546981492043</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
-        <v>359546981495640</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
-        <v>359546981495624</v>
-      </c>
-    </row>
+    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>

--- a/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -427,9 +427,9 @@
   <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,14 +778,37 @@
         <v>359546981492043</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>359546982018847</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>359546982020009</v>
+      </c>
+    </row>
     <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C22" s="1">
+        <v>359546982020520</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>359546982028226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>359546982020546</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>359546982021122</v>
+      </c>
+    </row>
     <row r="26" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -39,9 +39,6 @@
     <t>BL96</t>
   </si>
   <si>
-    <t>Atom</t>
-  </si>
-  <si>
     <t>B24</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>b62</t>
+  </si>
+  <si>
+    <t>l260</t>
   </si>
 </sst>
 </file>
@@ -426,10 +426,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E18:E19"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -471,52 +471,52 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -541,6 +541,9 @@
       <c r="H2" s="1">
         <v>357656105430407</v>
       </c>
+      <c r="I2" s="1">
+        <v>358425756249709</v>
+      </c>
       <c r="J2" s="1">
         <v>352451261499262</v>
       </c>
@@ -604,6 +607,9 @@
       <c r="H3" s="1">
         <v>357656104965064</v>
       </c>
+      <c r="I3" s="1">
+        <v>358425756249246</v>
+      </c>
       <c r="J3" s="1">
         <v>355029534323969</v>
       </c>
@@ -640,6 +646,9 @@
       <c r="H4" s="1">
         <v>357656104957129</v>
       </c>
+      <c r="I4" s="1">
+        <v>358425756249600</v>
+      </c>
       <c r="J4" s="1">
         <v>355029533076204</v>
       </c>
@@ -666,6 +675,9 @@
       <c r="D5" s="2"/>
       <c r="H5" s="1">
         <v>357656103352926</v>
+      </c>
+      <c r="I5" s="1">
+        <v>358425756550528</v>
       </c>
       <c r="N5" s="1">
         <v>359943106250382</v>
@@ -809,10 +821,26 @@
         <v>359546982021122</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>359546982019969</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>359546982020561</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>359546982028523</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>359546982025883</v>
+      </c>
+    </row>
     <row r="30" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>L140</t>
-  </si>
-  <si>
-    <t>BL120</t>
-  </si>
-  <si>
-    <t>bl96</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>L46</t>
   </si>
@@ -36,9 +27,6 @@
     <t>D48</t>
   </si>
   <si>
-    <t>BL96</t>
-  </si>
-  <si>
     <t>B24</t>
   </si>
   <si>
@@ -72,32 +60,26 @@
     <t>z30pro</t>
   </si>
   <si>
-    <t>BL99</t>
-  </si>
-  <si>
     <t>D82_SKD</t>
   </si>
   <si>
-    <t>l33</t>
-  </si>
-  <si>
-    <t>bl99</t>
-  </si>
-  <si>
     <t>T92_skd</t>
   </si>
   <si>
     <t>b62</t>
   </si>
   <si>
-    <t>l260</t>
+    <t>Z33</t>
+  </si>
+  <si>
+    <t>i69</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +89,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,11 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,426 +398,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>350053612055140</v>
-      </c>
-      <c r="B2" s="2">
-        <v>354340118950908</v>
+        <v>359546981452260</v>
+      </c>
+      <c r="B2" s="1">
+        <v>352451261499262</v>
       </c>
       <c r="C2" s="1">
-        <v>359546981452260</v>
-      </c>
-      <c r="D2" s="2">
-        <v>354150815586727</v>
+        <v>350942911978780</v>
+      </c>
+      <c r="D2" s="1">
+        <v>357858821204641</v>
       </c>
       <c r="E2" s="1">
-        <v>354150814039504</v>
+        <v>354580881168689</v>
       </c>
       <c r="F2" s="1">
-        <v>359946901450941</v>
+        <v>359943106234006</v>
+      </c>
+      <c r="G2" s="1">
+        <v>359312601046788</v>
       </c>
       <c r="H2" s="1">
-        <v>357656105430407</v>
+        <v>352510171476908</v>
       </c>
       <c r="I2" s="1">
-        <v>358425756249709</v>
+        <v>356982503081720</v>
       </c>
       <c r="J2" s="1">
-        <v>352451261499262</v>
+        <v>357398295474289</v>
       </c>
       <c r="K2" s="1">
-        <v>350942911978780</v>
+        <v>356184721312082</v>
       </c>
       <c r="L2" s="1">
-        <v>357858821204641</v>
+        <v>355964112734825</v>
       </c>
       <c r="M2" s="1">
-        <v>354580881168689</v>
-      </c>
-      <c r="N2" s="1">
-        <v>359943106234006</v>
+        <v>355066111959229</v>
+      </c>
+      <c r="N2" s="2">
+        <v>359833621701466</v>
       </c>
       <c r="O2" s="1">
-        <v>359312601046788</v>
+        <v>355642411102429</v>
       </c>
       <c r="P2" s="1">
-        <v>352510171476908</v>
+        <v>354473221310502</v>
       </c>
       <c r="Q2" s="1">
-        <v>356982503081720</v>
+        <v>356814241805484</v>
       </c>
       <c r="R2" s="1">
-        <v>357398295474289</v>
-      </c>
-      <c r="S2" s="1">
-        <v>356184721312082</v>
-      </c>
-      <c r="T2" s="1">
-        <v>355964112734825</v>
-      </c>
-      <c r="U2" s="1">
-        <v>355066111959229</v>
-      </c>
-      <c r="V2" s="2">
-        <v>359833621701466</v>
-      </c>
-      <c r="W2" s="1">
-        <v>355642411102429</v>
-      </c>
-      <c r="X2" s="1">
-        <v>354473221310502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>350339281574465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>350053612061148</v>
-      </c>
-      <c r="B3" s="2">
-        <v>354340118331323</v>
-      </c>
-      <c r="C3" s="1">
         <v>359546981442584</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="B3" s="1">
+        <v>355029534323969</v>
+      </c>
+      <c r="D3" s="1">
+        <v>357858821124724</v>
+      </c>
+      <c r="E3" s="1">
+        <v>354580881132107</v>
+      </c>
       <c r="F3" s="1">
-        <v>359946901619826</v>
-      </c>
-      <c r="H3" s="1">
-        <v>357656104965064</v>
+        <v>359943106332842</v>
+      </c>
+      <c r="G3" s="1">
+        <v>359312601027523</v>
       </c>
       <c r="I3" s="1">
-        <v>358425756249246</v>
-      </c>
-      <c r="J3" s="1">
-        <v>355029534323969</v>
+        <v>356982502343089</v>
       </c>
       <c r="M3" s="1">
-        <v>354580881132107</v>
-      </c>
-      <c r="N3" s="1">
-        <v>359943106332842</v>
-      </c>
-      <c r="O3" s="1">
-        <v>359312601027523</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>356982502343089</v>
-      </c>
-      <c r="U3" s="1">
         <v>355066111996965</v>
       </c>
-      <c r="X3" s="1">
+      <c r="P3" s="1">
         <v>354473221306484</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>350053612306162</v>
-      </c>
-      <c r="B4" s="2">
-        <v>354340119338889</v>
-      </c>
-      <c r="C4" s="1">
         <v>359546981442527</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="H4" s="1">
-        <v>357656104957129</v>
+      <c r="B4" s="1">
+        <v>355029533076204</v>
+      </c>
+      <c r="E4" s="1">
+        <v>354580881940368</v>
+      </c>
+      <c r="F4" s="1">
+        <v>359943106210501</v>
       </c>
       <c r="I4" s="1">
-        <v>358425756249600</v>
-      </c>
-      <c r="J4" s="1">
-        <v>355029533076204</v>
-      </c>
-      <c r="N4" s="1">
-        <v>359943106210501</v>
-      </c>
-      <c r="Q4" s="1">
         <v>356982500457683</v>
       </c>
-      <c r="U4" s="1">
+      <c r="M4" s="1">
         <v>355066111586204</v>
       </c>
-      <c r="X4" s="1">
+      <c r="P4" s="1">
         <v>354473221306021</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>354340119125948</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>359546981452302</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="H5" s="1">
-        <v>357656103352926</v>
+      <c r="F5" s="1">
+        <v>359943106250382</v>
       </c>
       <c r="I5" s="1">
-        <v>358425756550528</v>
-      </c>
-      <c r="N5" s="1">
-        <v>359943106250382</v>
-      </c>
-      <c r="Q5" s="1">
         <v>356982501812688</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>354340115335541</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>359546981442642</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="H6" s="1">
-        <v>357656104999907</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="F6" s="1">
         <v>359943106160268</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="I6" s="1">
         <v>356982500169668</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>354340118943085</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>359546981678864</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="H7" s="1">
-        <v>352611791767641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>354340118927344</v>
-      </c>
-      <c r="C8" s="1">
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>359546981700866</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>359546981700767</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>359546981700965</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>359546981701161</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>359546981700924</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>359546981427064</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>359546981418246</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>359546981419822</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>359546981434482</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>359546981678161</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="2">
+    </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>359546981678120</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>359546981492043</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>359546982018847</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1">
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>359546982020009</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1">
+    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>359546982020520</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>359546982028226</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>359546982020546</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>359546982021122</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>359546982019969</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>359546982020561</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>359546982028523</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>359546982025883</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2022/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entry OK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>L46</t>
   </si>
@@ -398,310 +399,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>359546981452260</v>
-      </c>
-      <c r="B2" s="1">
-        <v>352451261499262</v>
-      </c>
-      <c r="C2" s="1">
-        <v>350942911978780</v>
-      </c>
-      <c r="D2" s="1">
-        <v>357858821204641</v>
-      </c>
-      <c r="E2" s="1">
-        <v>354580881168689</v>
-      </c>
-      <c r="F2" s="1">
-        <v>359943106234006</v>
-      </c>
-      <c r="G2" s="1">
-        <v>359312601046788</v>
-      </c>
-      <c r="H2" s="1">
-        <v>352510171476908</v>
-      </c>
-      <c r="I2" s="1">
-        <v>356982503081720</v>
-      </c>
-      <c r="J2" s="1">
-        <v>357398295474289</v>
-      </c>
-      <c r="K2" s="1">
-        <v>356184721312082</v>
-      </c>
-      <c r="L2" s="1">
-        <v>355964112734825</v>
-      </c>
-      <c r="M2" s="1">
-        <v>355066111959229</v>
-      </c>
-      <c r="N2" s="2">
-        <v>359833621701466</v>
-      </c>
-      <c r="O2" s="1">
-        <v>355642411102429</v>
-      </c>
-      <c r="P2" s="1">
-        <v>354473221310502</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>356814241805484</v>
-      </c>
-      <c r="R2" s="1">
-        <v>350339281574465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981442527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>359546981442584</v>
-      </c>
-      <c r="B3" s="1">
-        <v>355029534323969</v>
-      </c>
-      <c r="D3" s="1">
-        <v>357858821124724</v>
-      </c>
-      <c r="E3" s="1">
-        <v>354580881132107</v>
-      </c>
-      <c r="F3" s="1">
-        <v>359943106332842</v>
-      </c>
-      <c r="G3" s="1">
-        <v>359312601027523</v>
-      </c>
-      <c r="I3" s="1">
-        <v>356982502343089</v>
-      </c>
-      <c r="M3" s="1">
-        <v>355066111996965</v>
-      </c>
-      <c r="P3" s="1">
-        <v>354473221306484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981452302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>359546981442527</v>
-      </c>
-      <c r="B4" s="1">
-        <v>355029533076204</v>
-      </c>
-      <c r="E4" s="1">
-        <v>354580881940368</v>
-      </c>
-      <c r="F4" s="1">
-        <v>359943106210501</v>
-      </c>
-      <c r="I4" s="1">
-        <v>356982500457683</v>
-      </c>
-      <c r="M4" s="1">
-        <v>355066111586204</v>
-      </c>
-      <c r="P4" s="1">
-        <v>354473221306021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981442642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>359546981452302</v>
-      </c>
-      <c r="F5" s="1">
-        <v>359943106250382</v>
-      </c>
-      <c r="I5" s="1">
-        <v>356982501812688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981678864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>359546981442642</v>
-      </c>
-      <c r="F6" s="1">
-        <v>359943106160268</v>
-      </c>
-      <c r="I6" s="1">
-        <v>356982500169668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>359546981678864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
         <v>359546981700866</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>359546981700767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>359546981700965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>359546981700767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981701161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>359546981700965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981700924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>359546981701161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981427064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>359546981700924</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981418246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>359546981427064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981419822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>359546981418246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981434482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>359546981419822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359546981678161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>359546981434482</v>
+        <v>359546981678120</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>359546981678161</v>
+      <c r="A17" s="1">
+        <v>359546981492043</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>359546981678120</v>
+      <c r="A18" s="1">
+        <v>359546982018847</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>359546981492043</v>
+        <v>359546982020009</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>359546982018847</v>
+        <v>359546982020520</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>359546982020009</v>
+        <v>359546982028226</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>359546982020520</v>
+        <v>359546982020546</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>359546982028226</v>
+        <v>359546982021122</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>359546982020546</v>
+        <v>359546982019969</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>359546982021122</v>
+        <v>359546982020561</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>359546982019969</v>
+        <v>359546982028523</v>
       </c>
     </row>
     <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>359546982020561</v>
+        <v>359546982025883</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -790,4 +633,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>359546981452260</v>
+      </c>
+      <c r="B2" s="1">
+        <v>352451261499262</v>
+      </c>
+      <c r="C2" s="1">
+        <v>350942911978780</v>
+      </c>
+      <c r="D2" s="1">
+        <v>357858821204641</v>
+      </c>
+      <c r="E2" s="1">
+        <v>354580881168689</v>
+      </c>
+      <c r="F2" s="1">
+        <v>359943106234006</v>
+      </c>
+      <c r="G2" s="1">
+        <v>359312601046788</v>
+      </c>
+      <c r="H2" s="1">
+        <v>352510171476908</v>
+      </c>
+      <c r="I2" s="1">
+        <v>356982503081720</v>
+      </c>
+      <c r="J2" s="1">
+        <v>357398295474289</v>
+      </c>
+      <c r="K2" s="1">
+        <v>356184721312082</v>
+      </c>
+      <c r="L2" s="1">
+        <v>355964112734825</v>
+      </c>
+      <c r="M2" s="1">
+        <v>355066111959229</v>
+      </c>
+      <c r="N2" s="2">
+        <v>359833621701466</v>
+      </c>
+      <c r="O2" s="1">
+        <v>355642411102429</v>
+      </c>
+      <c r="P2" s="1">
+        <v>354473221310502</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>356814241805484</v>
+      </c>
+      <c r="R2" s="1">
+        <v>350339281574465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>359546981442584</v>
+      </c>
+      <c r="B3" s="1">
+        <v>355029534323969</v>
+      </c>
+      <c r="D3" s="1">
+        <v>357858821124724</v>
+      </c>
+      <c r="E3" s="1">
+        <v>354580881132107</v>
+      </c>
+      <c r="F3" s="1">
+        <v>359943106332842</v>
+      </c>
+      <c r="G3" s="1">
+        <v>359312601027523</v>
+      </c>
+      <c r="I3" s="1">
+        <v>356982502343089</v>
+      </c>
+      <c r="M3" s="1">
+        <v>355066111996965</v>
+      </c>
+      <c r="P3" s="1">
+        <v>354473221306484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>355029533076204</v>
+      </c>
+      <c r="E4" s="1">
+        <v>354580881940368</v>
+      </c>
+      <c r="F4" s="1">
+        <v>359943106210501</v>
+      </c>
+      <c r="I4" s="1">
+        <v>356982500457683</v>
+      </c>
+      <c r="M4" s="1">
+        <v>355066111586204</v>
+      </c>
+      <c r="P4" s="1">
+        <v>354473221306021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>359943106250382</v>
+      </c>
+      <c r="I5" s="1">
+        <v>356982501812688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>359943106160268</v>
+      </c>
+      <c r="I6" s="1">
+        <v>356982500169668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>